--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_20-35.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_20-35.xlsx
@@ -104,6 +104,9 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
+    <t>CAL-MAG 30 F.C. TABLETS</t>
+  </si>
+  <si>
     <t>CAPIXY LASH SERUM</t>
   </si>
   <si>
@@ -237,6 +240,9 @@
   </si>
   <si>
     <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
     <t>FINCH BABY CREAM</t>
@@ -1561,13 +1567,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>522.5</v>
+        <v>144.06</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1587,13 +1593,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>86</v>
+        <v>522.5</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1613,13 +1619,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>118.8</v>
+        <v>86</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1631,7 +1637,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1639,17 +1645,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>86</v>
+        <v>118.8</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1657,7 +1663,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1665,17 +1671,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1691,17 +1697,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1717,13 +1723,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1735,7 +1741,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1743,17 +1749,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1769,17 +1775,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1795,17 +1801,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1821,17 +1827,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1847,17 +1853,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1865,7 +1871,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1873,17 +1879,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1899,17 +1905,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1917,7 +1923,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1925,17 +1931,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1943,7 +1949,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1951,17 +1957,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1977,17 +1983,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>47.5</v>
+        <v>98</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -2003,17 +2009,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>60</v>
+        <v>47.5</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -2029,17 +2035,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -2055,13 +2061,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -2073,7 +2079,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2081,17 +2087,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2099,7 +2105,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2107,17 +2113,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -2133,13 +2139,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -2159,17 +2165,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2177,7 +2183,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2185,13 +2191,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -2211,13 +2217,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -2243,7 +2249,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -2263,17 +2269,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2289,17 +2295,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2307,7 +2313,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2315,17 +2321,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2333,7 +2339,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2341,13 +2347,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2359,7 +2365,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2367,17 +2373,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2393,13 +2399,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2419,17 +2425,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2445,17 +2451,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>55.670000000000002</v>
+        <v>69</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2471,17 +2477,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2497,17 +2503,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>44</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2523,13 +2529,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2541,7 +2547,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2549,13 +2555,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2567,7 +2573,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2575,17 +2581,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2607,7 +2613,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>15.300000000000001</v>
+        <v>190</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2627,17 +2633,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2653,13 +2659,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>85.560000000000002</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2679,13 +2685,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2711,7 +2717,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>50.960000000000001</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2737,7 +2743,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2757,17 +2763,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>24</v>
+        <v>50.960000000000001</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2775,7 +2781,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2783,13 +2789,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2801,7 +2807,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2809,17 +2815,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>69.900000000000006</v>
+        <v>24</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2835,17 +2841,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2853,7 +2859,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2861,17 +2867,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>75</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2879,7 +2885,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2887,17 +2893,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>27.329999999999998</v>
+        <v>32</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2913,17 +2919,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>218.69999999999999</v>
+        <v>75</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2939,13 +2945,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>0</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2965,13 +2971,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>277.5</v>
+        <v>218.69999999999999</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2991,17 +2997,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3017,13 +3023,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>247</v>
+        <v>277.5</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -3043,7 +3049,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
@@ -3069,13 +3075,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -3101,7 +3107,7 @@
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -3121,17 +3127,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3139,7 +3145,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3147,17 +3153,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3165,7 +3171,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -3173,17 +3179,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3199,17 +3205,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>62.549999999999997</v>
+        <v>32</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3225,13 +3231,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -3257,7 +3263,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>85</v>
+        <v>62.549999999999997</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3277,17 +3283,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3295,7 +3301,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3303,13 +3309,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3321,7 +3327,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3329,17 +3335,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3355,13 +3361,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3381,17 +3387,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3399,7 +3405,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3407,17 +3413,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3425,7 +3431,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3433,17 +3439,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3459,17 +3465,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3485,17 +3491,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3511,17 +3517,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3537,17 +3543,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>56.399999999999999</v>
+        <v>75</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3555,7 +3561,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3563,17 +3569,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3581,7 +3587,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3589,17 +3595,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>30</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3615,17 +3621,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3641,13 +3647,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3667,13 +3673,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>65.75</v>
+        <v>85</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3693,17 +3699,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3725,7 +3731,7 @@
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>140</v>
+        <v>65.75</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3745,17 +3751,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3771,17 +3777,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3803,7 +3809,7 @@
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>249.47999999999999</v>
+        <v>90</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3823,17 +3829,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3849,17 +3855,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>140</v>
+        <v>249.47999999999999</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3867,7 +3873,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3881,7 +3887,7 @@
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3893,7 +3899,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3901,17 +3907,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3927,17 +3933,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3953,17 +3959,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3979,17 +3985,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -4005,17 +4011,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -4031,17 +4037,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -4057,17 +4063,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -4083,17 +4089,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -4109,17 +4115,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4135,17 +4141,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4161,17 +4167,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4187,17 +4193,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>9.9499999999999993</v>
+        <v>26</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4205,7 +4211,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4213,13 +4219,13 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
@@ -4231,7 +4237,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4239,13 +4245,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>224</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4265,17 +4271,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4291,17 +4297,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4317,17 +4323,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>58.200000000000003</v>
+        <v>31</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4335,7 +4341,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4343,7 +4349,7 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
@@ -4361,7 +4367,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4369,13 +4375,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>90</v>
+        <v>58.200000000000003</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
@@ -4395,13 +4401,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
@@ -4421,13 +4427,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
@@ -4447,13 +4453,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
@@ -4473,13 +4479,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
@@ -4499,13 +4505,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
@@ -4525,17 +4531,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4543,7 +4549,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4551,17 +4557,17 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
-        <v>172</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4569,7 +4575,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4583,11 +4589,11 @@
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4595,7 +4601,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4603,17 +4609,17 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="M133" s="9"/>
       <c t="s" r="N133" s="7">
-        <v>20</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" ht="24.75" customHeight="1">
@@ -4621,7 +4627,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4629,17 +4635,17 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M134" s="9"/>
       <c t="s" r="N134" s="7">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1">
@@ -4647,7 +4653,7 @@
         <v>132</v>
       </c>
       <c t="s" r="B135" s="7">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4655,13 +4661,13 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M135" s="9"/>
       <c t="s" r="N135" s="7">
@@ -4681,13 +4687,13 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="M136" s="9"/>
       <c t="s" r="N136" s="7">
@@ -4707,13 +4713,13 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="M137" s="9"/>
       <c t="s" r="N137" s="7">
@@ -4733,13 +4739,13 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="M138" s="9"/>
       <c t="s" r="N138" s="7">
@@ -4759,13 +4765,13 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="M139" s="9"/>
       <c t="s" r="N139" s="7">
@@ -4777,7 +4783,7 @@
         <v>137</v>
       </c>
       <c t="s" r="B140" s="7">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4785,13 +4791,13 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M140" s="9"/>
       <c t="s" r="N140" s="7">
@@ -4803,7 +4809,7 @@
         <v>138</v>
       </c>
       <c t="s" r="B141" s="7">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4811,13 +4817,13 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M141" s="9"/>
       <c t="s" r="N141" s="7">
@@ -4829,7 +4835,7 @@
         <v>139</v>
       </c>
       <c t="s" r="B142" s="7">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4837,13 +4843,13 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M142" s="9"/>
       <c t="s" r="N142" s="7">
@@ -4863,13 +4869,13 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c t="s" r="H143" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="9">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M143" s="9"/>
       <c t="s" r="N143" s="7">
@@ -4889,13 +4895,13 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c t="s" r="H144" s="8">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="9">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="M144" s="9"/>
       <c t="s" r="N144" s="7">
@@ -4915,13 +4921,13 @@
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c t="s" r="H145" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
       <c r="L145" s="9">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="M145" s="9"/>
       <c t="s" r="N145" s="7">
@@ -4941,13 +4947,13 @@
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c t="s" r="H146" s="8">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
       <c r="L146" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M146" s="9"/>
       <c t="s" r="N146" s="7">
@@ -4967,13 +4973,13 @@
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c t="s" r="H147" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
       <c r="L147" s="9">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="M147" s="9"/>
       <c t="s" r="N147" s="7">
@@ -4993,17 +4999,17 @@
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c t="s" r="H148" s="8">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M148" s="9"/>
       <c t="s" r="N148" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" ht="24.75" customHeight="1">
@@ -5019,13 +5025,13 @@
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c t="s" r="H149" s="8">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
       <c r="L149" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M149" s="9"/>
       <c t="s" r="N149" s="7">
@@ -5037,7 +5043,7 @@
         <v>147</v>
       </c>
       <c t="s" r="B150" s="7">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
@@ -5045,17 +5051,17 @@
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c t="s" r="H150" s="8">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
       <c r="L150" s="9">
-        <v>9.5</v>
+        <v>30</v>
       </c>
       <c r="M150" s="9"/>
       <c t="s" r="N150" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" ht="24.75" customHeight="1">
@@ -5063,7 +5069,7 @@
         <v>148</v>
       </c>
       <c t="s" r="B151" s="7">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
@@ -5071,13 +5077,13 @@
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c t="s" r="H151" s="8">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
       <c r="L151" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M151" s="9"/>
       <c t="s" r="N151" s="7">
@@ -5089,7 +5095,7 @@
         <v>149</v>
       </c>
       <c t="s" r="B152" s="7">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
@@ -5097,13 +5103,13 @@
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c t="s" r="H152" s="8">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
       <c r="L152" s="9">
-        <v>170</v>
+        <v>9.5</v>
       </c>
       <c r="M152" s="9"/>
       <c t="s" r="N152" s="7">
@@ -5123,13 +5129,13 @@
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c t="s" r="H153" s="8">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
       <c r="L153" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M153" s="9"/>
       <c t="s" r="N153" s="7">
@@ -5149,13 +5155,13 @@
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c t="s" r="H154" s="8">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
       <c r="L154" s="9">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="M154" s="9"/>
       <c t="s" r="N154" s="7">
@@ -5175,13 +5181,13 @@
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c t="s" r="H155" s="8">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
       <c r="L155" s="9">
-        <v>19.199999999999999</v>
+        <v>35</v>
       </c>
       <c r="M155" s="9"/>
       <c t="s" r="N155" s="7">
@@ -5201,13 +5207,13 @@
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c t="s" r="H156" s="8">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
       <c r="L156" s="9">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M156" s="9"/>
       <c t="s" r="N156" s="7">
@@ -5227,13 +5233,13 @@
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c t="s" r="H157" s="8">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
       <c r="L157" s="9">
-        <v>25</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M157" s="9"/>
       <c t="s" r="N157" s="7">
@@ -5253,13 +5259,13 @@
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c t="s" r="H158" s="8">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M158" s="9"/>
       <c t="s" r="N158" s="7">
@@ -5279,13 +5285,13 @@
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c t="s" r="H159" s="8">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="9">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M159" s="9"/>
       <c t="s" r="N159" s="7">
@@ -5305,13 +5311,13 @@
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c t="s" r="H160" s="8">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="9">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="M160" s="9"/>
       <c t="s" r="N160" s="7">
@@ -5331,13 +5337,13 @@
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c t="s" r="H161" s="8">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="9">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M161" s="9"/>
       <c t="s" r="N161" s="7">
@@ -5349,7 +5355,7 @@
         <v>159</v>
       </c>
       <c t="s" r="B162" s="7">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
@@ -5357,13 +5363,13 @@
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c t="s" r="H162" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="9">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="M162" s="9"/>
       <c t="s" r="N162" s="7">
@@ -5375,7 +5381,7 @@
         <v>160</v>
       </c>
       <c t="s" r="B163" s="7">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
@@ -5383,13 +5389,13 @@
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c t="s" r="H163" s="8">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M163" s="9"/>
       <c t="s" r="N163" s="7">
@@ -5409,13 +5415,13 @@
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c t="s" r="H164" s="8">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M164" s="9"/>
       <c t="s" r="N164" s="7">
@@ -5435,13 +5441,13 @@
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c t="s" r="H165" s="8">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M165" s="9"/>
       <c t="s" r="N165" s="7">
@@ -5461,13 +5467,13 @@
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c t="s" r="H166" s="8">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
       <c r="L166" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M166" s="9"/>
       <c t="s" r="N166" s="7">
@@ -5487,7 +5493,7 @@
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c t="s" r="H167" s="8">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
@@ -5513,51 +5519,103 @@
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c t="s" r="H168" s="8">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
       <c r="L168" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M168" s="9"/>
       <c t="s" r="N168" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="169" ht="25.5" customHeight="1">
-      <c r="K169" s="10">
-        <v>10509.25</v>
-      </c>
-      <c r="L169" s="10"/>
-      <c r="M169" s="10"/>
-      <c r="N169" s="10"/>
-    </row>
-    <row r="170" ht="16.5" customHeight="1">
-      <c t="s" r="A170" s="11">
+    <row r="169" ht="24.75" customHeight="1">
+      <c r="A169" s="6">
+        <v>166</v>
+      </c>
+      <c t="s" r="B169" s="7">
         <v>216</v>
       </c>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
-      <c t="s" r="F170" s="12">
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c t="s" r="H169" s="8">
+        <v>11</v>
+      </c>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="8"/>
+      <c r="L169" s="9">
+        <v>40</v>
+      </c>
+      <c r="M169" s="9"/>
+      <c t="s" r="N169" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" ht="25.5" customHeight="1">
+      <c r="A170" s="6">
+        <v>167</v>
+      </c>
+      <c t="s" r="B170" s="7">
         <v>217</v>
       </c>
-      <c r="G170" s="12"/>
-      <c r="H170" s="13"/>
-      <c t="s" r="I170" s="14">
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c t="s" r="H170" s="8">
+        <v>71</v>
+      </c>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
+      <c r="L170" s="9">
+        <v>30</v>
+      </c>
+      <c r="M170" s="9"/>
+      <c t="s" r="N170" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" ht="25.5" customHeight="1">
+      <c r="K171" s="10">
+        <v>10812.31</v>
+      </c>
+      <c r="L171" s="10"/>
+      <c r="M171" s="10"/>
+      <c r="N171" s="10"/>
+    </row>
+    <row r="172" ht="16.5" customHeight="1">
+      <c t="s" r="A172" s="11">
         <v>218</v>
       </c>
-      <c r="J170" s="14"/>
-      <c r="K170" s="14"/>
-      <c r="L170" s="14"/>
-      <c r="M170" s="14"/>
-      <c r="N170" s="14"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c t="s" r="F172" s="12">
+        <v>219</v>
+      </c>
+      <c r="G172" s="12"/>
+      <c r="H172" s="13"/>
+      <c t="s" r="I172" s="14">
+        <v>220</v>
+      </c>
+      <c r="J172" s="14"/>
+      <c r="K172" s="14"/>
+      <c r="L172" s="14"/>
+      <c r="M172" s="14"/>
+      <c r="N172" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="506">
+  <mergeCells count="512">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -6060,10 +6118,16 @@
     <mergeCell ref="B168:G168"/>
     <mergeCell ref="H168:K168"/>
     <mergeCell ref="L168:M168"/>
-    <mergeCell ref="K169:N169"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="I170:N170"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="H169:K169"/>
+    <mergeCell ref="L169:M169"/>
+    <mergeCell ref="B170:G170"/>
+    <mergeCell ref="H170:K170"/>
+    <mergeCell ref="L170:M170"/>
+    <mergeCell ref="K171:N171"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="I172:N172"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
